--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3bcb016510c61/MLR/Ausstellungsstücke/__LötKisten/__Github/SolderCase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3bcb016510c61/Dokumente/GitHub/SolderCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{C04FB23A-8B55-4235-BABD-929EC625D60E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEB49BED-0C26-4356-AB21-A208DBE13AFA}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="8_{C04FB23A-8B55-4235-BABD-929EC625D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F6082F-F3B7-4829-AB3A-E485C952F1A1}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="5115" windowWidth="24315" windowHeight="14775" xr2:uid="{A69D1F71-165B-4D0C-BF55-3E1746EE05B2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{A69D1F71-165B-4D0C-BF55-3E1746EE05B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -148,6 +157,9 @@
   </si>
   <si>
     <t>double-sided adhesive tape, 20cm</t>
+  </si>
+  <si>
+    <t>zip tie, 15cm</t>
   </si>
 </sst>
 </file>
@@ -583,31 +595,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S75"/>
+  <dimension ref="B1:S76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D1" s="13"/>
     </row>
-    <row r="4" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
@@ -628,7 +640,7 @@
       </c>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1</v>
       </c>
@@ -650,7 +662,7 @@
       </c>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2</v>
       </c>
@@ -672,7 +684,7 @@
       </c>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>3</v>
       </c>
@@ -696,7 +708,7 @@
       <c r="H8" s="9"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>4</v>
       </c>
@@ -720,7 +732,7 @@
       <c r="H9" s="9"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>5</v>
       </c>
@@ -744,7 +756,7 @@
       <c r="H10" s="9"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>6</v>
       </c>
@@ -768,7 +780,7 @@
       <c r="H11" s="9"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>7</v>
       </c>
@@ -792,7 +804,7 @@
       <c r="H12" s="9"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>8</v>
       </c>
@@ -815,7 +827,7 @@
       <c r="H13" s="9"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>9</v>
       </c>
@@ -838,7 +850,7 @@
       <c r="H14" s="9"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>10</v>
       </c>
@@ -861,7 +873,7 @@
       <c r="H15" s="9"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>11</v>
       </c>
@@ -885,7 +897,7 @@
       <c r="H16" s="9"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>12</v>
       </c>
@@ -908,7 +920,7 @@
       <c r="H17" s="9"/>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>13</v>
       </c>
@@ -931,7 +943,7 @@
       <c r="H18" s="9"/>
       <c r="S18" s="11"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>14</v>
       </c>
@@ -954,7 +966,7 @@
       <c r="H19" s="9"/>
       <c r="S19" s="11"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="15" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>15</v>
       </c>
@@ -978,7 +990,7 @@
       <c r="H20" s="9"/>
       <c r="S20" s="11"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>16</v>
       </c>
@@ -1000,7 +1012,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>17</v>
       </c>
@@ -1023,7 +1035,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>18</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>0.4995</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ref="F23:F37" si="2">E23*C23</f>
+        <f t="shared" ref="F23:F38" si="2">E23*C23</f>
         <v>0.4995</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -1046,7 +1058,7 @@
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>19</v>
       </c>
@@ -1068,7 +1080,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>20</v>
       </c>
@@ -1090,7 +1102,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>21</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>22</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>23</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>24</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>25</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>26</v>
       </c>
@@ -1198,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>27</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>28</v>
       </c>
@@ -1234,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>29</v>
       </c>
@@ -1252,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>30</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>31</v>
       </c>
@@ -1288,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>32</v>
       </c>
@@ -1306,104 +1318,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="16" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <f>SUM(F6:F36)</f>
         <v>87.835499999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="16"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="56" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C54" s="1"/>
+      <c r="D54" s="16"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="57" spans="2:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="16"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="7"/>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C67" s="1"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D76" s="16"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3bcb016510c61/Dokumente/GitHub/SolderCase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3bcb016510c61/MLR/Projekte/_GitHub/SolderCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{C04FB23A-8B55-4235-BABD-929EC625D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F6082F-F3B7-4829-AB3A-E485C952F1A1}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{C04FB23A-8B55-4235-BABD-929EC625D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4428CC27-8F17-4E6E-890E-53F21D87BBF1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{A69D1F71-165B-4D0C-BF55-3E1746EE05B2}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="10590" windowHeight="6922" xr2:uid="{A69D1F71-165B-4D0C-BF55-3E1746EE05B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Pinecil</t>
   </si>
   <si>
-    <t>SUMME</t>
-  </si>
-  <si>
     <t>PC fan, 120mm, ca. 25mm thick, 24V</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>ferrule 0,75mm^2</t>
   </si>
   <si>
-    <t>cable lug 0,75mm^2</t>
-  </si>
-  <si>
     <t>MDF wood, 3mm, 570x500 mm</t>
   </si>
   <si>
@@ -160,6 +154,9 @@
   </si>
   <si>
     <t>zip tie, 15cm</t>
+  </si>
+  <si>
+    <t>cable lug 0,75mm^2, two small, four medium</t>
   </si>
 </sst>
 </file>
@@ -597,8 +594,8 @@
   </sheetPr>
   <dimension ref="B1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -616,27 +613,27 @@
     </row>
     <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="S5" s="10"/>
     </row>
@@ -648,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -670,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>3.72</v>
@@ -692,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5">
         <f>5.25/10</f>
@@ -716,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5">
         <f>1.55/5</f>
@@ -740,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5">
         <f>8.99/40</f>
@@ -764,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5">
         <f>8.49/12</f>
@@ -788,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5">
         <f>10.5/5</f>
@@ -835,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5">
         <v>3.84</v>
@@ -858,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="5">
         <v>3.99</v>
@@ -881,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5">
         <f>3.4/3</f>
@@ -905,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5">
         <v>1.78</v>
@@ -928,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="5">
         <v>1.56</v>
@@ -951,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5">
         <v>6.9</v>
@@ -974,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5">
         <f>18.5/12</f>
@@ -998,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1020,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5">
         <f>13.95/100</f>
@@ -1043,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
         <f>9.99/20</f>
@@ -1066,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="5">
         <v>16</v>
@@ -1088,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" s="5">
         <v>12.5</v>
@@ -1110,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -1128,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -1146,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -1164,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -1182,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -1200,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -1218,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -1236,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -1254,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -1272,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -1287,10 +1284,10 @@
         <v>31</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -1308,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -1326,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -1338,7 +1335,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D39" s="16" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7">
         <f>SUM(F6:F36)</f>

--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb3bcb016510c61/MLR/Projekte/_GitHub/SolderCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{C04FB23A-8B55-4235-BABD-929EC625D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4428CC27-8F17-4E6E-890E-53F21D87BBF1}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{C04FB23A-8B55-4235-BABD-929EC625D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D25B33-3C46-4352-BE78-0DC9F52CEB8A}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="10590" windowHeight="6922" xr2:uid="{A69D1F71-165B-4D0C-BF55-3E1746EE05B2}"/>
+    <workbookView xWindow="-5070" yWindow="-12795" windowWidth="21600" windowHeight="11055" xr2:uid="{A69D1F71-165B-4D0C-BF55-3E1746EE05B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +249,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,6 +279,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -594,17 +607,18 @@
   </sheetPr>
   <dimension ref="B1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="2" max="2" width="5.06640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
     <col min="4" max="4" width="38.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
     <col min="7" max="7" width="27.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -638,10 +652,10 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -660,10 +674,10 @@
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B7">
+      <c r="B7" s="21">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -682,10 +696,10 @@
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B8">
+      <c r="B8" s="21">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="21">
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -706,10 +720,10 @@
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B9">
+      <c r="B9" s="21">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -730,10 +744,10 @@
       <c r="S9" s="11"/>
     </row>
     <row r="10" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B10">
+      <c r="B10" s="21">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="21">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -754,10 +768,10 @@
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B11">
+      <c r="B11" s="21">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="21">
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -778,10 +792,10 @@
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B12">
+      <c r="B12" s="21">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="21">
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -802,10 +816,10 @@
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B13">
+      <c r="B13" s="21">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -825,10 +839,10 @@
       <c r="S13" s="11"/>
     </row>
     <row r="14" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B14">
+      <c r="B14" s="21">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -848,10 +862,10 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B15">
+      <c r="B15" s="21">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="21">
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -871,10 +885,10 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B16">
+      <c r="B16" s="21">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="21">
         <v>1</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -895,10 +909,10 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B17">
+      <c r="B17" s="21">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="21">
         <v>1</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -918,10 +932,10 @@
       <c r="S17" s="11"/>
     </row>
     <row r="18" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B18">
+      <c r="B18" s="21">
         <v>13</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="21">
         <v>1</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -941,10 +955,10 @@
       <c r="S18" s="11"/>
     </row>
     <row r="19" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B19">
+      <c r="B19" s="21">
         <v>14</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="21">
         <v>1</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -964,10 +978,10 @@
       <c r="S19" s="11"/>
     </row>
     <row r="20" spans="2:19" ht="15" x14ac:dyDescent="0.45">
-      <c r="B20">
+      <c r="B20" s="21">
         <v>15</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="21">
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -988,10 +1002,10 @@
       <c r="S20" s="11"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B21">
+      <c r="B21" s="21">
         <v>16</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="21">
         <v>1</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -1010,10 +1024,10 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B22">
+      <c r="B22" s="21">
         <v>17</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="21">
         <v>2</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -1033,10 +1047,10 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B23">
+      <c r="B23" s="21">
         <v>18</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="21">
         <v>1</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -1056,10 +1070,10 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B24">
+      <c r="B24" s="21">
         <v>19</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="21">
         <v>1</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -1078,10 +1092,10 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B25">
+      <c r="B25" s="21">
         <v>20</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="21">
         <v>1</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -1100,10 +1114,10 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B26">
+      <c r="B26" s="21">
         <v>21</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="21">
         <v>8</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -1118,10 +1132,10 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B27">
+      <c r="B27" s="21">
         <v>22</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="21">
         <v>8</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -1136,10 +1150,10 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B28">
+      <c r="B28" s="21">
         <v>23</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="21">
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -1154,10 +1168,10 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B29">
+      <c r="B29" s="21">
         <v>24</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="21">
         <v>2</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -1172,10 +1186,10 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B30">
+      <c r="B30" s="21">
         <v>25</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="21">
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -1190,10 +1204,10 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B31">
+      <c r="B31" s="21">
         <v>26</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="21">
         <v>2</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -1208,10 +1222,10 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B32">
+      <c r="B32" s="21">
         <v>27</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="21">
         <v>1</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -1226,10 +1240,10 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33">
+      <c r="B33" s="21">
         <v>28</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="21">
         <v>1</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -1244,10 +1258,10 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34">
+      <c r="B34" s="21">
         <v>29</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="21">
         <v>2</v>
       </c>
       <c r="D34" s="12" t="s">
@@ -1262,10 +1276,10 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35">
+      <c r="B35" s="21">
         <v>30</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="21">
         <v>5</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -1280,10 +1294,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36">
+      <c r="B36" s="21">
         <v>31</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="21">
         <v>6</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -1298,10 +1312,10 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37">
+      <c r="B37" s="21">
         <v>32</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="21">
         <v>2</v>
       </c>
       <c r="D37" s="15" t="s">
@@ -1316,10 +1330,10 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38">
+      <c r="B38" s="21">
         <v>33</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="21">
         <v>1</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -1333,11 +1347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D39" s="16" t="s">
+    <row r="39" spans="2:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="7">
+      <c r="E39" s="19"/>
+      <c r="F39" s="20">
         <f>SUM(F6:F36)</f>
         <v>87.835499999999996</v>
       </c>
